--- a/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_3_1.xlsx
+++ b/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_3_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18260" windowHeight="7080" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18260" windowHeight="7080" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="楼层" sheetId="28" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="85">
   <si>
     <t>房间1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,14 @@
   </si>
   <si>
     <t>50,51,52,53,54,55,56,57,58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1849,10 +1857,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2010,6 +2018,41 @@
         <v>5</v>
       </c>
       <c r="L4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2195,10 +2238,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2391,6 +2434,41 @@
         <v>5</v>
       </c>
       <c r="L5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" t="b">
         <v>1</v>
       </c>
     </row>

--- a/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_3_1.xlsx
+++ b/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_3_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18260" windowHeight="7080" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18255" windowHeight="7080" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="楼层" sheetId="28" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="87">
   <si>
     <t>房间1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,6 +352,12 @@
   <si>
     <t>房间5</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风口标高</t>
+  </si>
+  <si>
+    <t>是否通过</t>
   </si>
 </sst>
 </file>
@@ -756,12 +762,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="4" width="11.26953125" customWidth="1"/>
+    <col min="3" max="4" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -775,7 +781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -789,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -804,7 +810,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -819,7 +825,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -834,7 +840,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -849,7 +855,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -864,7 +870,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -879,7 +885,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -894,7 +900,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -909,7 +915,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -924,7 +930,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -939,7 +945,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -954,7 +960,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -969,7 +975,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -984,7 +990,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -999,7 +1005,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1038,19 +1044,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D54" sqref="A54:D59"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1063,8 +1069,11 @@
       <c r="D1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1077,8 +1086,11 @@
       <c r="D2" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1091,8 +1103,11 @@
       <c r="D3" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1105,8 +1120,11 @@
       <c r="D4" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1119,8 +1137,11 @@
       <c r="D5" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1133,8 +1154,11 @@
       <c r="D6" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1147,8 +1171,11 @@
       <c r="D7" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1161,8 +1188,11 @@
       <c r="D8" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1175,8 +1205,11 @@
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1189,8 +1222,11 @@
       <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1203,8 +1239,11 @@
       <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1217,8 +1256,11 @@
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1231,8 +1273,11 @@
       <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1245,8 +1290,11 @@
       <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1259,8 +1307,11 @@
       <c r="D15" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1273,8 +1324,11 @@
       <c r="D16" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1287,8 +1341,11 @@
       <c r="D17" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1301,8 +1358,11 @@
       <c r="D18" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1315,8 +1375,11 @@
       <c r="D19" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="D20" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1343,8 +1409,11 @@
       <c r="D21" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1357,8 +1426,11 @@
       <c r="D22" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1371,8 +1443,11 @@
       <c r="D23" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1385,8 +1460,11 @@
       <c r="D24" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1399,8 +1477,11 @@
       <c r="D25" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1413,8 +1494,11 @@
       <c r="D26" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1427,8 +1511,11 @@
       <c r="D27" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1441,8 +1528,11 @@
       <c r="D28" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1455,8 +1545,11 @@
       <c r="D29" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1469,8 +1562,11 @@
       <c r="D30" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1481,8 +1577,11 @@
         <v>1</v>
       </c>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1493,8 +1592,11 @@
         <v>3</v>
       </c>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1505,8 +1607,11 @@
         <v>6</v>
       </c>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1517,8 +1622,11 @@
         <v>9</v>
       </c>
       <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1529,8 +1637,11 @@
         <v>12</v>
       </c>
       <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1541,8 +1652,11 @@
         <v>15</v>
       </c>
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1553,8 +1667,11 @@
         <v>17</v>
       </c>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1565,8 +1682,11 @@
         <v>1</v>
       </c>
       <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1577,8 +1697,11 @@
         <v>3</v>
       </c>
       <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1589,8 +1712,11 @@
         <v>6</v>
       </c>
       <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -1601,8 +1727,11 @@
         <v>9</v>
       </c>
       <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -1613,8 +1742,11 @@
         <v>12</v>
       </c>
       <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -1625,8 +1757,11 @@
         <v>15</v>
       </c>
       <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -1637,8 +1772,11 @@
         <v>17</v>
       </c>
       <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -1651,8 +1789,11 @@
       <c r="D45" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -1665,8 +1806,11 @@
       <c r="D46" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -1679,8 +1823,11 @@
       <c r="D47" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -1693,8 +1840,11 @@
       <c r="D48" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -1707,8 +1857,11 @@
       <c r="D49" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -1721,8 +1874,11 @@
       <c r="D50" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1735,8 +1891,11 @@
       <c r="D51" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1749,8 +1908,11 @@
       <c r="D52" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -1763,8 +1925,11 @@
       <c r="D53" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -1777,8 +1942,11 @@
       <c r="D54" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -1791,8 +1959,11 @@
       <c r="D55" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -1805,8 +1976,11 @@
       <c r="D56" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -1819,8 +1993,11 @@
       <c r="D57" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -1833,8 +2010,11 @@
       <c r="D58" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -1846,6 +2026,9 @@
       </c>
       <c r="D59" s="3">
         <v>17</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1863,19 +2046,19 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="32.6328125" customWidth="1"/>
-    <col min="5" max="5" width="19.7265625" customWidth="1"/>
+    <col min="4" max="4" width="32.625" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="18.6328125" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
     <col min="9" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="55.36328125" customWidth="1"/>
+    <col min="13" max="13" width="55.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1916,7 +2099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1951,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1986,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2021,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2071,19 +2254,19 @@
       <selection activeCell="L2" sqref="L2:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="32.6328125" customWidth="1"/>
-    <col min="5" max="5" width="19.7265625" customWidth="1"/>
+    <col min="4" max="4" width="32.625" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="18.6328125" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
     <col min="9" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="55.36328125" customWidth="1"/>
+    <col min="13" max="13" width="55.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2124,7 +2307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2159,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2194,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2240,23 +2423,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
-    <col min="5" max="5" width="19.7265625" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="18.6328125" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
     <col min="9" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="55.36328125" customWidth="1"/>
+    <col min="13" max="13" width="55.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2297,7 +2480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2332,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2367,7 +2550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2402,7 +2585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2437,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2481,20 +2664,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="4" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -2505,135 +2688,186 @@
         <v>31</v>
       </c>
       <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>81</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_3_1.xlsx
+++ b/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_3_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18255" windowHeight="7080" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18260" windowHeight="7080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="楼层" sheetId="28" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="91">
   <si>
     <t>房间1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,6 +358,22 @@
   </si>
   <si>
     <t>是否通过</t>
+  </si>
+  <si>
+    <t>是否为室外风口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -762,12 +778,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="11.25" customWidth="1"/>
+    <col min="3" max="4" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -781,7 +797,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -795,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -810,7 +826,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -825,7 +841,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -840,7 +856,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -855,7 +871,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -870,7 +886,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -885,7 +901,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -900,7 +916,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -915,7 +931,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -930,7 +946,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -945,7 +961,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -960,7 +976,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -975,7 +991,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -990,7 +1006,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1005,7 +1021,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1020,7 +1036,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1044,19 +1060,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E59"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34:G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1072,8 +1089,14 @@
       <c r="E1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1089,8 +1112,14 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1106,8 +1135,14 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1123,8 +1158,14 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1140,8 +1181,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1157,8 +1204,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1174,8 +1227,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1191,8 +1250,14 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1208,8 +1273,14 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1225,8 +1296,14 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1242,8 +1319,14 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1259,8 +1342,14 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1276,8 +1365,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1293,8 +1388,14 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1310,8 +1411,14 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1327,8 +1434,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1344,8 +1457,14 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1361,8 +1480,14 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1378,8 +1503,14 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1395,8 +1526,14 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1412,8 +1549,14 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1429,8 +1572,14 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1446,8 +1595,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1463,8 +1618,14 @@
       <c r="E24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1480,8 +1641,14 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1497,8 +1664,14 @@
       <c r="E26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1514,8 +1687,14 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1531,8 +1710,14 @@
       <c r="E28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1548,8 +1733,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1565,8 +1756,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1580,8 +1777,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1595,8 +1798,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1610,8 +1819,14 @@
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1625,8 +1840,14 @@
       <c r="E34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1640,8 +1861,14 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1655,8 +1882,14 @@
       <c r="E36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1670,8 +1903,14 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1685,8 +1924,14 @@
       <c r="E38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1700,8 +1945,14 @@
       <c r="E39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1715,8 +1966,14 @@
       <c r="E40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>-1750</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -1730,8 +1987,14 @@
       <c r="E41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>-2500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -1745,8 +2008,14 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>-3250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -1760,8 +2029,14 @@
       <c r="E43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>-4000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -1775,8 +2050,14 @@
       <c r="E44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>-4750</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -1792,8 +2073,14 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>-5500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -1809,8 +2096,14 @@
       <c r="E46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>-6250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -1826,8 +2119,14 @@
       <c r="E47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>-7000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -1843,8 +2142,14 @@
       <c r="E48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>-7750</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -1860,8 +2165,14 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>-8500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -1877,8 +2188,14 @@
       <c r="E50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>-9250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1894,8 +2211,14 @@
       <c r="E51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1911,8 +2234,14 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>-10750</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -1928,8 +2257,14 @@
       <c r="E53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>-11500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -1945,8 +2280,14 @@
       <c r="E54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>-12250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -1962,8 +2303,14 @@
       <c r="E55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>-13000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -1979,8 +2326,14 @@
       <c r="E56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>-13750</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -1996,8 +2349,14 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>-14500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2013,8 +2372,14 @@
       <c r="E58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>-15250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -2029,6 +2394,12 @@
       </c>
       <c r="E59">
         <v>0</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>-16000</v>
       </c>
     </row>
   </sheetData>
@@ -2040,25 +2411,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="32.625" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="32.6328125" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" customWidth="1"/>
     <col min="6" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="55.375" customWidth="1"/>
+    <col min="8" max="8" width="18.6328125" customWidth="1"/>
+    <col min="9" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="55.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2087,19 +2458,22 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2125,16 +2499,19 @@
         <v>10</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>5</v>
       </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2160,16 +2537,19 @@
         <v>10</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>5</v>
       </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2195,16 +2575,19 @@
         <v>10</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>5</v>
       </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2230,12 +2613,15 @@
         <v>10</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>5</v>
       </c>
-      <c r="L5" t="b">
+      <c r="M5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2248,25 +2634,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="32.625" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="32.6328125" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" customWidth="1"/>
     <col min="6" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="55.375" customWidth="1"/>
+    <col min="8" max="8" width="18.6328125" customWidth="1"/>
+    <col min="9" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="55.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2298,16 +2684,19 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2336,13 +2725,16 @@
         <v>1</v>
       </c>
       <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>5</v>
       </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2371,13 +2763,16 @@
         <v>1</v>
       </c>
       <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
         <v>5</v>
       </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2406,9 +2801,12 @@
         <v>1</v>
       </c>
       <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>5</v>
       </c>
-      <c r="L4" t="b">
+      <c r="M4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2421,25 +2819,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" customWidth="1"/>
     <col min="6" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="55.375" customWidth="1"/>
+    <col min="8" max="8" width="18.6328125" customWidth="1"/>
+    <col min="9" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="55.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2474,13 +2872,16 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2511,11 +2912,14 @@
       <c r="K2">
         <v>5</v>
       </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2546,11 +2950,14 @@
       <c r="K3">
         <v>5</v>
       </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2581,11 +2988,14 @@
       <c r="K4">
         <v>5</v>
       </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2616,11 +3026,14 @@
       <c r="K5">
         <v>5</v>
       </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2651,7 +3064,10 @@
       <c r="K6">
         <v>5</v>
       </c>
-      <c r="L6" t="b">
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2664,20 +3080,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="4" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="4" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -2693,8 +3109,11 @@
       <c r="E1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2704,8 +3123,11 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2715,8 +3137,11 @@
       <c r="D3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2726,8 +3151,11 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2737,8 +3165,11 @@
       <c r="D5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2748,8 +3179,11 @@
       <c r="D6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2759,8 +3193,11 @@
       <c r="D7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2770,8 +3207,11 @@
       <c r="D8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2781,8 +3221,11 @@
       <c r="D9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2792,8 +3235,11 @@
       <c r="D10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2803,8 +3249,11 @@
       <c r="D11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2814,8 +3263,11 @@
       <c r="D12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2825,8 +3277,11 @@
       <c r="D13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2836,8 +3291,11 @@
       <c r="D14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2847,8 +3305,11 @@
       <c r="D15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2858,8 +3319,11 @@
       <c r="D16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2868,6 +3332,9 @@
       </c>
       <c r="D17" t="b">
         <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
